--- a/Lab9-Thermistor/Deliverables/Procedure67.xlsx
+++ b/Lab9-Thermistor/Deliverables/Procedure67.xlsx
@@ -39,7 +39,7 @@
     <t>(x-u)^2</t>
   </si>
   <si>
-    <t>stddev</t>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -93,11 +93,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,216 +408,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A11" sqref="A11:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>22.55</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="3">
         <f>ABS(B2-$A$2)</f>
         <v>0.44999999999999929</v>
       </c>
-      <c r="F2">
-        <f>D7/5</f>
+      <c r="D2" s="3">
+        <f>C7/5</f>
         <v>0.6100000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3">
         <v>22.38</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">ABS(B3-$A$2)</f>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C6" si="0">ABS(B3-$A$2)</f>
         <v>0.62000000000000099</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
         <v>22.49</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>0.51000000000000156</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>22.28</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>0.71999999999999886</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
         <v>22.25</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <f>SUM(D2:D6)</f>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
         <v>3.0500000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>21.44</v>
       </c>
-      <c r="B12">
-        <f>(A12-$A$23)^2</f>
-        <v>2.4999999999990054E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>21.46</v>
-      </c>
-      <c r="B13">
-        <f>(A13-$A$23)^2</f>
-        <v>2.2500000000001704E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>21.41</v>
-      </c>
-      <c r="B14">
-        <f>(A14-$A$23)^2</f>
-        <v>1.2250000000000099E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>21.43</v>
-      </c>
-      <c r="B15">
-        <f>(A15-$A$23)^2</f>
-        <v>2.2500000000001704E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>21.4</v>
-      </c>
-      <c r="B16">
-        <f>(A16-$A$23)^2</f>
-        <v>2.0250000000001534E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>21.44</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B13:B21" si="1">(A17-$A$23)^2</f>
-        <v>2.4999999999990054E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>21.43</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>2.2500000000001704E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>21.45</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>2.4999999999990054E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>21.47</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>6.24999999999929E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21.52</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>5.6249999999998931E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B12" s="6">
         <f>SUM(A12:A21)/10</f>
         <v>21.445</v>
       </c>
-      <c r="B23" s="3">
-        <f>SQRT(SUM(B12:B21)/10)</f>
+      <c r="C12" s="6">
+        <f>(A12-$B$12)^2</f>
+        <v>2.4999999999990054E-5</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SQRT(SUM(C12:C21)/10)</f>
         <v>3.201562118716425E-2</v>
       </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>21.46</v>
+      </c>
+      <c r="C13" s="3">
+        <f>(A13-$B$12)^2</f>
+        <v>2.2500000000001704E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>21.41</v>
+      </c>
+      <c r="C14" s="3">
+        <f>(A14-$B$12)^2</f>
+        <v>1.2250000000000099E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>21.43</v>
+      </c>
+      <c r="C15" s="3">
+        <f>(A15-$B$12)^2</f>
+        <v>2.2500000000001704E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="C16" s="3">
+        <f>(A16-$B$12)^2</f>
+        <v>2.0250000000001534E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>21.44</v>
+      </c>
+      <c r="C17" s="3">
+        <f>(A17-$B$12)^2</f>
+        <v>2.4999999999990054E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>21.43</v>
+      </c>
+      <c r="C18" s="3">
+        <f>(A18-$B$12)^2</f>
+        <v>2.2500000000001704E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>21.45</v>
+      </c>
+      <c r="C19" s="3">
+        <f>(A19-$B$12)^2</f>
+        <v>2.4999999999990054E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>21.47</v>
+      </c>
+      <c r="C20" s="3">
+        <f>(A20-$B$12)^2</f>
+        <v>6.24999999999929E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>21.52</v>
+      </c>
+      <c r="C21" s="3">
+        <f>(A21-$B$12)^2</f>
+        <v>5.6249999999998931E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
